--- a/results/merged_RJ_2025.01.09.xlsx
+++ b/results/merged_RJ_2025.01.09.xlsx
@@ -549,7 +549,7 @@
     <col width="19" customWidth="1" min="77" max="77"/>
     <col width="26" customWidth="1" min="78" max="78"/>
     <col width="22" customWidth="1" min="79" max="79"/>
-    <col width="39" customWidth="1" min="80" max="80"/>
+    <col width="24" customWidth="1" min="80" max="80"/>
     <col width="41" customWidth="1" min="81" max="81"/>
     <col width="19" customWidth="1" min="82" max="82"/>
     <col width="13" customWidth="1" min="83" max="83"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>Readable Spectral Type (experimental)</t>
+          <t>Readable Spectral Type</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
@@ -1259,16 +1259,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA2" s="2" t="inlineStr">
-        <is>
-          <t>K4.5V</t>
-        </is>
-      </c>
-      <c r="CB2" s="2" t="inlineStr">
-        <is>
-          <t>K4.5V</t>
-        </is>
-      </c>
       <c r="CC2" s="2" t="n">
         <v>1.929489517207265</v>
       </c>
@@ -1554,16 +1544,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA3" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB3" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC3" s="2" t="n">
         <v>1.759050685484102</v>
       </c>
@@ -1855,7 +1835,7 @@
         <v>0.5730966165167038</v>
       </c>
       <c r="CD4" s="2" t="n">
-        <v>7.478346136538076</v>
+        <v>7.478346136538074</v>
       </c>
       <c r="CF4" s="2" t="inlineStr">
         <is>
@@ -2408,21 +2388,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA6" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
-      <c r="CB6" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC6" s="2" t="n">
         <v>0.6932365286912114</v>
       </c>
       <c r="CD6" s="2" t="n">
-        <v>7.435229060298578</v>
+        <v>7.435229060298576</v>
       </c>
       <c r="CE6" s="2" t="inlineStr">
         <is>
@@ -2985,16 +2955,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA8" s="2" t="inlineStr">
-        <is>
-          <t>K2.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB8" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC8" s="2" t="n">
         <v>1.306871258457764</v>
       </c>
@@ -3280,16 +3240,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA9" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB9" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC9" s="2" t="n">
         <v>1.695573677109842</v>
       </c>
@@ -3575,16 +3525,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA10" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB10" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC10" s="2" t="n">
         <v>0.6633463321963884</v>
       </c>
@@ -3875,16 +3815,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA11" s="2" t="inlineStr">
-        <is>
-          <t>G8V</t>
-        </is>
-      </c>
-      <c r="CB11" s="2" t="inlineStr">
-        <is>
-          <t>G8V</t>
-        </is>
-      </c>
       <c r="CC11" s="2" t="n">
         <v>1.117419989728082</v>
       </c>
@@ -4126,7 +4056,7 @@
         <v>0.79312927</v>
       </c>
       <c r="BP12" s="2" t="n">
-        <v>0.7729086508056566</v>
+        <v>0.7729086508056565</v>
       </c>
       <c r="BQ12" s="2" t="n">
         <v>0.08059422994419436</v>
@@ -4162,21 +4092,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA12" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB12" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC12" s="2" t="n">
         <v>0.7087923524028937</v>
       </c>
       <c r="CD12" s="2" t="n">
-        <v>7.228567098899185</v>
+        <v>7.228567098899183</v>
       </c>
       <c r="CE12" s="2" t="inlineStr">
         <is>
@@ -5039,16 +4959,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA15" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB15" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC15" s="2" t="n">
         <v>0.2915670197316235</v>
       </c>
@@ -5626,16 +5536,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA17" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB17" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC17" s="2" t="n">
         <v>1.308840066962156</v>
       </c>
@@ -5911,21 +5811,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA18" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB18" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC18" s="2" t="n">
         <v>1.419464368419534</v>
       </c>
       <c r="CD18" s="2" t="n">
-        <v>16.16961333282446</v>
+        <v>16.16961333282445</v>
       </c>
       <c r="CE18" s="2" t="inlineStr">
         <is>
@@ -6201,16 +6091,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA19" s="2" t="inlineStr">
-        <is>
-          <t>K6Vk:</t>
-        </is>
-      </c>
-      <c r="CB19" s="2" t="inlineStr">
-        <is>
-          <t>K6V</t>
-        </is>
-      </c>
       <c r="CC19" s="2" t="n">
         <v>2.213348335073589</v>
       </c>
@@ -6491,16 +6371,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA20" s="2" t="inlineStr">
-        <is>
-          <t>K4.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB20" s="2" t="inlineStr">
-        <is>
-          <t>K4.5V</t>
-        </is>
-      </c>
       <c r="CC20" s="2" t="n">
         <v>1.416810917432006</v>
       </c>
@@ -6786,16 +6656,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA21" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB21" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC21" s="2" t="n">
         <v>1.566186024845328</v>
       </c>
@@ -7076,16 +6936,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA22" s="2" t="inlineStr">
-        <is>
-          <t>K3.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB22" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
       <c r="CC22" s="2" t="n">
         <v>1.867246014575616</v>
       </c>
@@ -7656,16 +7506,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA24" s="2" t="inlineStr">
-        <is>
-          <t>F9VFe-0.5</t>
-        </is>
-      </c>
-      <c r="CB24" s="2" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC24" s="2" t="n">
         <v>2.284325631987032</v>
       </c>
@@ -7946,16 +7786,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA25" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB25" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC25" s="2" t="n">
         <v>1.598620167959677</v>
       </c>
@@ -8241,16 +8071,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA26" s="2" t="inlineStr">
-        <is>
-          <t>K2/3V</t>
-        </is>
-      </c>
-      <c r="CB26" s="2" t="inlineStr">
-        <is>
-          <t>K2/3V</t>
-        </is>
-      </c>
       <c r="CC26" s="2" t="n">
         <v>1.703474310598065</v>
       </c>
@@ -8823,16 +8643,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA28" s="2" t="inlineStr">
-        <is>
-          <t>G5V</t>
-        </is>
-      </c>
-      <c r="CB28" s="2" t="inlineStr">
-        <is>
-          <t>G5V</t>
-        </is>
-      </c>
       <c r="CC28" s="2" t="n">
         <v>1.629666692205314</v>
       </c>
@@ -9118,16 +8928,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA29" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
-      <c r="CB29" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
       <c r="CC29" s="2" t="n">
         <v>1.61688634336947</v>
       </c>
@@ -9410,16 +9210,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA30" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
-      <c r="CB30" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC30" s="2" t="n">
         <v>1.246684924050531</v>
       </c>
@@ -9705,16 +9495,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA31" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB31" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC31" s="2" t="n">
         <v>1.293009722301958</v>
       </c>
@@ -9995,16 +9775,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA32" s="2" t="inlineStr">
-        <is>
-          <t>G6.5V</t>
-        </is>
-      </c>
-      <c r="CB32" s="2" t="inlineStr">
-        <is>
-          <t>G6.5V</t>
-        </is>
-      </c>
       <c r="CC32" s="2" t="n">
         <v>1.494642602191986</v>
       </c>
@@ -10285,16 +10055,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA33" s="2" t="inlineStr">
-        <is>
-          <t>G7V</t>
-        </is>
-      </c>
-      <c r="CB33" s="2" t="inlineStr">
-        <is>
-          <t>G7V</t>
-        </is>
-      </c>
       <c r="CC33" s="2" t="n">
         <v>0.8540485482395566</v>
       </c>
@@ -10575,21 +10335,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA34" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
-      <c r="CB34" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
       <c r="CC34" s="2" t="n">
         <v>0.9032258933011167</v>
       </c>
       <c r="CD34" s="2" t="n">
-        <v>8.744719768346879</v>
+        <v>8.744719768346878</v>
       </c>
       <c r="CE34" s="2" t="inlineStr">
         <is>
@@ -10870,16 +10620,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA35" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB35" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC35" s="2" t="n">
         <v>1.223627125271365</v>
       </c>
@@ -11165,16 +10905,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA36" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB36" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC36" s="2" t="n">
         <v>2.019476443825502</v>
       </c>
@@ -11460,16 +11190,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA37" s="2" t="inlineStr">
-        <is>
-          <t>G9V</t>
-        </is>
-      </c>
-      <c r="CB37" s="2" t="inlineStr">
-        <is>
-          <t>G9V</t>
-        </is>
-      </c>
       <c r="CC37" s="2" t="n">
         <v>1.481576761467434</v>
       </c>
@@ -11750,16 +11470,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA38" s="2" t="inlineStr">
-        <is>
-          <t>G1.5V</t>
-        </is>
-      </c>
-      <c r="CB38" s="2" t="inlineStr">
-        <is>
-          <t>G1.5V</t>
-        </is>
-      </c>
       <c r="CC38" s="2" t="n">
         <v>1.362513145042043</v>
       </c>
@@ -12335,16 +12045,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA40" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
-      <c r="CB40" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
       <c r="CC40" s="2" t="n">
         <v>1.780403547784098</v>
       </c>
@@ -12627,16 +12327,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA41" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB41" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC41" s="2" t="n">
         <v>1.853574029712384</v>
       </c>
@@ -13217,16 +12907,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA43" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="CB43" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC43" s="2" t="n">
         <v>1.503208959751769</v>
       </c>
@@ -13507,16 +13187,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA44" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB44" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC44" s="2" t="n">
         <v>1.255528586686926</v>
       </c>
@@ -13802,16 +13472,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA45" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
-      <c r="CB45" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
       <c r="CC45" s="2" t="n">
         <v>2.009722754969657</v>
       </c>
@@ -14087,16 +13747,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA46" s="2" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="CB46" s="2" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC46" s="2" t="n">
         <v>2.529230297748703</v>
       </c>
@@ -14966,16 +14616,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA49" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="CB49" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC49" s="2" t="n">
         <v>0.7950825050741951</v>
       </c>
@@ -15846,16 +15486,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA52" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB52" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC52" s="2" t="n">
         <v>1.395205962521868</v>
       </c>
@@ -16631,7 +16261,7 @@
         <v>-24.80394386396552</v>
       </c>
       <c r="BF55" s="2" t="n">
-        <v>9.903611348943713</v>
+        <v>9.903611348943711</v>
       </c>
       <c r="BG55" s="2" t="n">
         <v>9.304690361022949</v>
@@ -16664,10 +16294,10 @@
         <v>0.4264384150345887</v>
       </c>
       <c r="BQ55" s="2" t="n">
-        <v>0.4533946297083034</v>
+        <v>0.4533946297083031</v>
       </c>
       <c r="BR55" s="2" t="n">
-        <v>2.564986269794455</v>
+        <v>2.564986269794454</v>
       </c>
       <c r="BS55" s="2" t="n">
         <v>2.895997877367483</v>
@@ -16705,18 +16335,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA55" s="2" t="inlineStr">
-        <is>
-          <t>K7Vk:</t>
-        </is>
-      </c>
-      <c r="CB55" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
       <c r="CC55" s="2" t="n">
-        <v>2.564969813501871</v>
+        <v>2.564969813501869</v>
       </c>
       <c r="CD55" s="2" t="n">
         <v>18.72703714229642</v>
@@ -17586,16 +17206,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA58" s="2" t="inlineStr">
-        <is>
-          <t>G6.5V</t>
-        </is>
-      </c>
-      <c r="CB58" s="2" t="inlineStr">
-        <is>
-          <t>G6.5V</t>
-        </is>
-      </c>
       <c r="CC58" s="2" t="n">
         <v>0.7300811231546194</v>
       </c>
@@ -17876,16 +17486,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA59" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB59" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC59" s="2" t="n">
         <v>1.793552009397267</v>
       </c>
@@ -18461,16 +18061,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA61" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB61" s="2" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC61" s="2" t="n">
         <v>1.499361689439415</v>
       </c>
@@ -18756,16 +18346,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA62" s="2" t="inlineStr">
-        <is>
-          <t>F9VFe-1.5CH-0.7</t>
-        </is>
-      </c>
-      <c r="CB62" s="2" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC62" s="2" t="n">
         <v>4.686832494526272</v>
       </c>
@@ -19056,16 +18636,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA63" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
-      <c r="CB63" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
       <c r="CC63" s="2" t="n">
         <v>1.672855707894952</v>
       </c>
@@ -19646,16 +19216,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA65" s="2" t="inlineStr">
-        <is>
-          <t>G2-V</t>
-        </is>
-      </c>
-      <c r="CB65" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC65" s="2" t="n">
         <v>1.244930575736043</v>
       </c>
@@ -19936,16 +19496,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA66" s="2" t="inlineStr">
-        <is>
-          <t>K6Vk</t>
-        </is>
-      </c>
-      <c r="CB66" s="2" t="inlineStr">
-        <is>
-          <t>K6V</t>
-        </is>
-      </c>
       <c r="CC66" s="2" t="n">
         <v>2.02968754069739</v>
       </c>
@@ -20447,7 +19997,7 @@
         <v>-56.44366680941792</v>
       </c>
       <c r="BF68" s="2" t="n">
-        <v>7.078011894307138</v>
+        <v>7.078011894307137</v>
       </c>
       <c r="BG68" s="2" t="n">
         <v>6.866890907287598</v>
@@ -20480,10 +20030,10 @@
         <v>0.8075752876774311</v>
       </c>
       <c r="BQ68" s="2" t="n">
-        <v>0.1467204175415847</v>
+        <v>0.1467204175415846</v>
       </c>
       <c r="BR68" s="2" t="n">
-        <v>1.333274305644923</v>
+        <v>1.333274305644922</v>
       </c>
       <c r="BS68" s="2" t="n">
         <v>1.848206256583958</v>
@@ -20521,18 +20071,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA68" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB68" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC68" s="2" t="n">
-        <v>1.333271042125484</v>
+        <v>1.333271042125483</v>
       </c>
       <c r="CD68" s="2" t="n">
         <v>14.82647987202467</v>
@@ -20821,16 +20361,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA69" s="2" t="inlineStr">
-        <is>
-          <t>G2Va</t>
-        </is>
-      </c>
-      <c r="CB69" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC69" s="2" t="n">
         <v>1.237670106674188</v>
       </c>
@@ -21111,16 +20641,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA70" s="2" t="inlineStr">
-        <is>
-          <t>G5V</t>
-        </is>
-      </c>
-      <c r="CB70" s="2" t="inlineStr">
-        <is>
-          <t>G5V</t>
-        </is>
-      </c>
       <c r="CC70" s="2" t="n">
         <v>1.156399616152608</v>
       </c>
@@ -21401,16 +20921,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA71" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB71" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC71" s="2" t="n">
         <v>1.424545578856465</v>
       </c>
@@ -21681,16 +21191,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA72" s="2" t="inlineStr">
-        <is>
-          <t>G8.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB72" s="2" t="inlineStr">
-        <is>
-          <t>G8.5V</t>
-        </is>
-      </c>
       <c r="CC72" s="2" t="n">
         <v>1.513614764691289</v>
       </c>
@@ -21961,16 +21461,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA73" s="2" t="inlineStr">
-        <is>
-          <t>K3/4V</t>
-        </is>
-      </c>
-      <c r="CB73" s="2" t="inlineStr">
-        <is>
-          <t>K3/4V</t>
-        </is>
-      </c>
       <c r="CC73" s="2" t="n">
         <v>1.920048020678876</v>
       </c>
@@ -22546,16 +22036,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA75" s="2" t="inlineStr">
-        <is>
-          <t>K4/5V</t>
-        </is>
-      </c>
-      <c r="CB75" s="2" t="inlineStr">
-        <is>
-          <t>K4/5V</t>
-        </is>
-      </c>
       <c r="CC75" s="2" t="n">
         <v>1.309857180926842</v>
       </c>
@@ -22841,16 +22321,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA76" s="2" t="inlineStr">
-        <is>
-          <t>K2.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB76" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC76" s="2" t="n">
         <v>1.288249204737161</v>
       </c>
@@ -23126,21 +22596,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA77" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB77" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC77" s="2" t="n">
         <v>0.5294743225641715</v>
       </c>
       <c r="CD77" s="2" t="n">
-        <v>5.947768672408886</v>
+        <v>5.947768672408884</v>
       </c>
       <c r="CE77" s="2" t="inlineStr">
         <is>
@@ -23411,21 +22871,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA78" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB78" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC78" s="2" t="n">
         <v>0.5290407979530127</v>
       </c>
       <c r="CD78" s="2" t="n">
-        <v>5.952271867918356</v>
+        <v>5.952271867918357</v>
       </c>
       <c r="CE78" s="2" t="inlineStr">
         <is>
@@ -23706,21 +23156,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA79" s="2" t="inlineStr">
-        <is>
-          <t>G9V</t>
-        </is>
-      </c>
-      <c r="CB79" s="2" t="inlineStr">
-        <is>
-          <t>G9V</t>
-        </is>
-      </c>
       <c r="CC79" s="2" t="n">
         <v>0.7237436201563109</v>
       </c>
       <c r="CD79" s="2" t="n">
-        <v>8.791104886960108</v>
+        <v>8.791104886960111</v>
       </c>
       <c r="CE79" s="2" t="inlineStr">
         <is>
@@ -24001,16 +23441,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA80" s="2" t="inlineStr">
-        <is>
-          <t>G3V</t>
-        </is>
-      </c>
-      <c r="CB80" s="2" t="inlineStr">
-        <is>
-          <t>G3V</t>
-        </is>
-      </c>
       <c r="CC80" s="2" t="n">
         <v>1.612939466728339</v>
       </c>
@@ -24297,7 +23727,7 @@
         <v>1.00496033301819</v>
       </c>
       <c r="CD81" s="2" t="n">
-        <v>7.713318653486467</v>
+        <v>7.713318653486466</v>
       </c>
       <c r="CE81" s="2" t="inlineStr">
         <is>
@@ -24578,16 +24008,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA82" s="2" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
-      <c r="CB82" s="2" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
       <c r="CC82" s="2" t="n">
         <v>2.528983177252474</v>
       </c>
@@ -24868,16 +24288,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA83" s="2" t="inlineStr">
-        <is>
-          <t>G3IV-V</t>
-        </is>
-      </c>
-      <c r="CB83" s="2" t="inlineStr">
-        <is>
-          <t>G3IV-V</t>
-        </is>
-      </c>
       <c r="CC83" s="2" t="n">
         <v>1.13511944648496</v>
       </c>
@@ -25155,21 +24565,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA84" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB84" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC84" s="2" t="n">
         <v>0.7582418672732505</v>
       </c>
       <c r="CD84" s="2" t="n">
-        <v>5.105783367734122</v>
+        <v>5.105783367734121</v>
       </c>
       <c r="CE84" s="2" t="inlineStr">
         <is>
@@ -25445,16 +24845,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA85" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
-      <c r="CB85" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
       <c r="CC85" s="2" t="n">
         <v>1.4976843859931</v>
       </c>
@@ -26032,16 +25422,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA87" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB87" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC87" s="2" t="n">
         <v>1.847846147498832</v>
       </c>
@@ -26322,16 +25702,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA88" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB88" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC88" s="2" t="n">
         <v>1.176752583020998</v>
       </c>
@@ -26609,16 +25979,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA89" s="2" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
-      <c r="CB89" s="2" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
       <c r="CC89" s="2" t="n">
         <v>1.2342497422876</v>
       </c>
@@ -27191,21 +26551,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA91" s="2" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
-      <c r="CB91" s="2" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
       <c r="CC91" s="2" t="n">
         <v>1.483366132894098</v>
       </c>
       <c r="CD91" s="2" t="n">
-        <v>16.95317213092453</v>
+        <v>16.95317213092454</v>
       </c>
       <c r="CE91" s="2" t="inlineStr">
         <is>
@@ -27481,16 +26831,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA92" s="2" t="inlineStr">
-        <is>
-          <t>G7IVHdel1</t>
-        </is>
-      </c>
-      <c r="CB92" s="2" t="inlineStr">
-        <is>
-          <t>G7IV</t>
-        </is>
-      </c>
       <c r="CC92" s="2" t="n">
         <v>1.034562799168904</v>
       </c>
@@ -27771,16 +27111,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA93" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB93" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC93" s="2" t="n">
         <v>1.588627728672245</v>
       </c>
@@ -28061,16 +27391,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA94" s="2" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
-      <c r="CB94" s="2" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
       <c r="CC94" s="2" t="n">
         <v>2.031914380465188</v>
       </c>
@@ -28351,16 +27671,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA95" s="2" t="inlineStr">
-        <is>
-          <t>K3.5Vk:</t>
-        </is>
-      </c>
-      <c r="CB95" s="2" t="inlineStr">
-        <is>
-          <t>K3.5V</t>
-        </is>
-      </c>
       <c r="CC95" s="2" t="n">
         <v>2.086610135187652</v>
       </c>
@@ -28646,16 +27956,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA96" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="CB96" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC96" s="2" t="n">
         <v>1.534922061410821</v>
       </c>
@@ -28941,16 +28241,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA97" s="2" t="inlineStr">
-        <is>
-          <t>G8IV</t>
-        </is>
-      </c>
-      <c r="CB97" s="2" t="inlineStr">
-        <is>
-          <t>G8IV</t>
-        </is>
-      </c>
       <c r="CC97" s="2" t="n">
         <v>0.5223206596684706</v>
       </c>
@@ -29223,16 +28513,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA98" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
-      <c r="CB98" s="2" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC98" s="2" t="n">
         <v>0.5590275095562457</v>
       </c>
@@ -29518,21 +28798,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA99" s="2" t="inlineStr">
-        <is>
-          <t>K2+V</t>
-        </is>
-      </c>
-      <c r="CB99" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC99" s="2" t="n">
         <v>0.7586321818386983</v>
       </c>
       <c r="CD99" s="2" t="n">
-        <v>8.811567976359873</v>
+        <v>8.811567976359871</v>
       </c>
       <c r="CE99" s="2" t="inlineStr">
         <is>
@@ -29808,16 +29078,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA100" s="2" t="inlineStr">
-        <is>
-          <t>K5.5V</t>
-        </is>
-      </c>
-      <c r="CB100" s="2" t="inlineStr">
-        <is>
-          <t>K5.5V</t>
-        </is>
-      </c>
       <c r="CC100" s="2" t="n">
         <v>2.185942503788062</v>
       </c>
@@ -30098,21 +29358,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA101" s="2" t="inlineStr">
-        <is>
-          <t>G8V</t>
-        </is>
-      </c>
-      <c r="CB101" s="2" t="inlineStr">
-        <is>
-          <t>G8V</t>
-        </is>
-      </c>
       <c r="CC101" s="2" t="n">
         <v>1.657059271536794</v>
       </c>
       <c r="CD101" s="2" t="n">
-        <v>19.30544636899008</v>
+        <v>19.30544636899007</v>
       </c>
       <c r="CE101" s="2" t="inlineStr">
         <is>
@@ -30390,16 +29640,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA102" s="2" t="inlineStr">
-        <is>
-          <t>G7.5IV-V</t>
-        </is>
-      </c>
-      <c r="CB102" s="2" t="inlineStr">
-        <is>
-          <t>G7.5IV-V</t>
-        </is>
-      </c>
       <c r="CC102" s="2" t="n">
         <v>1.357744852917667</v>
       </c>
@@ -30685,16 +29925,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA103" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
-      <c r="CB103" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
       <c r="CC103" s="2" t="n">
         <v>1.525933823873187</v>
       </c>
@@ -31854,16 +31084,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA107" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB107" s="2" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC107" s="2" t="n">
         <v>1.316193876733624</v>
       </c>
@@ -32144,16 +31364,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA108" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="CB108" s="2" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC108" s="2" t="n">
         <v>1.420482012828254</v>
       </c>
@@ -32398,10 +31608,10 @@
         <v>0.6801935396018817</v>
       </c>
       <c r="BQ109" s="2" t="n">
-        <v>0.04760277646490328</v>
+        <v>0.04760277646490326</v>
       </c>
       <c r="BR109" s="2" t="n">
-        <v>0.3846692630478291</v>
+        <v>0.3846692630478289</v>
       </c>
       <c r="BS109" s="2" t="n">
         <v>2.216291768419251</v>
@@ -32439,18 +31649,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA109" s="2" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
-      <c r="CB109" s="2" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
       <c r="CC109" s="2" t="n">
-        <v>0.3846689737009667</v>
+        <v>0.3846689737009666</v>
       </c>
       <c r="CD109" s="2" t="n">
         <v>3.638438981826665</v>
@@ -32688,7 +31888,7 @@
         <v>1.466963109333895</v>
       </c>
       <c r="BQ110" s="2" t="n">
-        <v>0.09177873625991576</v>
+        <v>0.09177873625991573</v>
       </c>
       <c r="BR110" s="2" t="n">
         <v>1.232070702796847</v>
@@ -32729,18 +31929,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA110" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
-      <c r="CB110" s="2" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
       <c r="CC110" s="2" t="n">
-        <v>1.232068383131733</v>
+        <v>1.232068383131732</v>
       </c>
       <c r="CD110" s="2" t="n">
         <v>14.01680510641773</v>
@@ -33321,16 +32511,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA112" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB112" s="2" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC112" s="2" t="n">
         <v>1.540750240893464</v>
       </c>
@@ -33906,16 +33086,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA114" s="2" t="inlineStr">
-        <is>
-          <t>K7+Vk</t>
-        </is>
-      </c>
-      <c r="CB114" s="2" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
       <c r="CC114" s="2" t="n">
         <v>1.001676513284205</v>
       </c>
@@ -34478,21 +33648,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA116" s="2" t="inlineStr">
-        <is>
-          <t>K5Vk:</t>
-        </is>
-      </c>
-      <c r="CB116" s="2" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
       <c r="CC116" s="2" t="n">
         <v>2.35932508765071</v>
       </c>
       <c r="CD116" s="2" t="n">
-        <v>19.75394620148875</v>
+        <v>19.75394620148876</v>
       </c>
       <c r="CE116" s="2" t="inlineStr">
         <is>
@@ -34773,16 +33933,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA117" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB117" s="2" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC117" s="2" t="n">
         <v>1.784342526029172</v>
       </c>
@@ -35070,16 +34220,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA118" s="2" t="inlineStr">
-        <is>
-          <t>K3+V</t>
-        </is>
-      </c>
-      <c r="CB118" s="2" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC118" s="2" t="n">
         <v>1.166829181339082</v>
       </c>
@@ -35365,16 +34505,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA119" s="2" t="inlineStr">
-        <is>
-          <t>G9.5V</t>
-        </is>
-      </c>
-      <c r="CB119" s="2" t="inlineStr">
-        <is>
-          <t>G9.5V</t>
-        </is>
-      </c>
       <c r="CC119" s="2" t="n">
         <v>1.520241884130193</v>
       </c>
@@ -36683,16 +35813,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA125" s="4" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="CB125" s="4" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
       <c r="CC125" s="4" t="n">
         <v>5.875244630317954</v>
       </c>
@@ -36968,16 +36088,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA126" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="CB126" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC126" s="4" t="n">
         <v>2.237608609703624</v>
       </c>
@@ -37253,16 +36363,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA127" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB127" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC127" s="4" t="n">
         <v>3.539266872503884</v>
       </c>
@@ -37840,21 +36940,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA129" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB129" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC129" s="4" t="n">
         <v>4.17978604536453</v>
       </c>
       <c r="CD129" s="4" t="n">
-        <v>8.905034452470851</v>
+        <v>8.905034452470854</v>
       </c>
       <c r="CE129" s="4" t="inlineStr">
         <is>
@@ -38125,16 +37215,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA130" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="CB130" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC130" s="4" t="n">
         <v>0.916376850247449</v>
       </c>
@@ -38410,16 +37490,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA131" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB131" s="4" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC131" s="4" t="n">
         <v>5.380997543623037</v>
       </c>
@@ -38695,16 +37765,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA132" s="4" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
-      <c r="CB132" s="4" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
       <c r="CC132" s="4" t="n">
         <v>2.546715862571223</v>
       </c>
@@ -38980,16 +38040,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA133" s="4" t="inlineStr">
-        <is>
-          <t>F9VCH-0.4</t>
-        </is>
-      </c>
-      <c r="CB133" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC133" s="4" t="n">
         <v>5.289600644292484</v>
       </c>
@@ -39260,21 +38310,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA134" s="4" t="inlineStr">
-        <is>
-          <t>F9VFe-1.4CH-0.7</t>
-        </is>
-      </c>
-      <c r="CB134" s="4" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC134" s="4" t="n">
         <v>3.051208518415592</v>
       </c>
       <c r="CD134" s="4" t="n">
-        <v>9.258384372889218</v>
+        <v>9.258384372889216</v>
       </c>
       <c r="CE134" s="4" t="inlineStr">
         <is>
@@ -39545,16 +38585,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA135" s="4" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="CB135" s="4" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
       <c r="CC135" s="4" t="n">
         <v>5.49245592601731</v>
       </c>
@@ -39835,16 +38865,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA136" s="4" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB136" s="4" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC136" s="4" t="n">
         <v>2.526783920637656</v>
       </c>
@@ -40120,16 +39140,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA137" t="inlineStr">
-        <is>
-          <t>F8VFe-0.8CH-0.5</t>
-        </is>
-      </c>
-      <c r="CB137" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
       <c r="CC137" t="n">
         <v>6.374639824385636</v>
       </c>
@@ -40369,10 +39379,10 @@
         <v>2.273639728799405</v>
       </c>
       <c r="BQ138" t="n">
-        <v>1.095749767853115</v>
+        <v>1.095749767853114</v>
       </c>
       <c r="BR138" t="n">
-        <v>20.66783462008508</v>
+        <v>20.66783462008507</v>
       </c>
       <c r="BS138" t="n">
         <v>0.4255055133414155</v>
@@ -40410,18 +39420,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA138" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
-      <c r="CB138" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
       <c r="CC138" t="n">
-        <v>20.66732214665768</v>
+        <v>20.66732214665767</v>
       </c>
       <c r="CD138" t="n">
         <v>21.71904936066078</v>
@@ -40700,16 +39700,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA139" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB139" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC139" t="n">
         <v>23.23732931377879</v>
       </c>
@@ -40995,16 +39985,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA140" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
-      <c r="CB140" t="inlineStr">
-        <is>
-          <t>K2V</t>
-        </is>
-      </c>
       <c r="CC140" t="n">
         <v>0.7544239895301074</v>
       </c>
@@ -41301,7 +40281,7 @@
         <v>0.3573652612687087</v>
       </c>
       <c r="CD141" t="n">
-        <v>3.652170961142576</v>
+        <v>3.652170961142577</v>
       </c>
       <c r="CE141" t="inlineStr">
         <is>
@@ -41582,16 +40562,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA142" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
-      <c r="CB142" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
       <c r="CC142" t="n">
         <v>1.869027651670242</v>
       </c>
@@ -41872,16 +40842,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA143" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="CB143" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
       <c r="CC143" t="n">
         <v>9.614784752675757</v>
       </c>
@@ -42172,16 +41132,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA144" t="inlineStr">
-        <is>
-          <t>G2.5VHdel1</t>
-        </is>
-      </c>
-      <c r="CB144" t="inlineStr">
-        <is>
-          <t>G2.5V</t>
-        </is>
-      </c>
       <c r="CC144" t="n">
         <v>1.131500929397614</v>
       </c>
@@ -42467,16 +41417,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA145" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
-      <c r="CB145" t="inlineStr">
-        <is>
-          <t>G6V</t>
-        </is>
-      </c>
       <c r="CC145" t="n">
         <v>0.5142611276059875</v>
       </c>
@@ -43052,16 +41992,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA147" t="inlineStr">
-        <is>
-          <t>F5IV-V</t>
-        </is>
-      </c>
-      <c r="CB147" t="inlineStr">
-        <is>
-          <t>F5IV-V</t>
-        </is>
-      </c>
       <c r="CC147" t="n">
         <v>18.82134610690313</v>
       </c>
@@ -43347,16 +42277,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA148" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
-      <c r="CB148" t="inlineStr">
-        <is>
-          <t>K4V</t>
-        </is>
-      </c>
       <c r="CC148" t="n">
         <v>1.697622746810906</v>
       </c>
@@ -43644,16 +42564,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA149" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB149" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC149" t="n">
         <v>0.4771345237448785</v>
       </c>
@@ -43934,16 +42844,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA150" t="inlineStr">
-        <is>
-          <t>M0.5V</t>
-        </is>
-      </c>
-      <c r="CB150" t="inlineStr">
-        <is>
-          <t>M0.5V</t>
-        </is>
-      </c>
       <c r="CC150" t="n">
         <v>1.426086891702461</v>
       </c>
@@ -44224,16 +43124,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA151" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
-      <c r="CB151" t="inlineStr">
-        <is>
-          <t>F8V</t>
-        </is>
-      </c>
       <c r="CC151" t="n">
         <v>3.680947886992401</v>
       </c>
@@ -44509,21 +43399,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA152" t="inlineStr">
-        <is>
-          <t>K2.5V(k)</t>
-        </is>
-      </c>
-      <c r="CB152" t="inlineStr">
-        <is>
-          <t>K2.5V</t>
-        </is>
-      </c>
       <c r="CC152" t="n">
         <v>0.8408143061232506</v>
       </c>
       <c r="CD152" t="n">
-        <v>8.891570979811476</v>
+        <v>8.89157097981148</v>
       </c>
       <c r="CE152" t="inlineStr">
         <is>
@@ -44804,16 +43684,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA153" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="CB153" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
       <c r="CC153" t="n">
         <v>1.412445050981794</v>
       </c>
@@ -45094,16 +43964,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA154" t="inlineStr">
-        <is>
-          <t>F5.5IV-V</t>
-        </is>
-      </c>
-      <c r="CB154" t="inlineStr">
-        <is>
-          <t>F5.5IV-V</t>
-        </is>
-      </c>
       <c r="CC154" t="n">
         <v>22.72264595190018</v>
       </c>
@@ -45384,16 +44244,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA155" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
-      <c r="CB155" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
       <c r="CC155" t="n">
         <v>22.0683783925585</v>
       </c>
@@ -45971,16 +44821,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA157" t="inlineStr">
-        <is>
-          <t>F6.5V</t>
-        </is>
-      </c>
-      <c r="CB157" t="inlineStr">
-        <is>
-          <t>F6.5V</t>
-        </is>
-      </c>
       <c r="CC157" t="n">
         <v>12.80119578215209</v>
       </c>
@@ -46266,16 +45106,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA158" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB158" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC158" t="n">
         <v>1.31888718860156</v>
       </c>
@@ -46556,16 +45386,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA159" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
-      <c r="CB159" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
       <c r="CC159" t="n">
         <v>19.83902044014632</v>
       </c>
@@ -46846,16 +45666,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA160" t="inlineStr">
-        <is>
-          <t>F6.5V</t>
-        </is>
-      </c>
-      <c r="CB160" t="inlineStr">
-        <is>
-          <t>F6.5V</t>
-        </is>
-      </c>
       <c r="CC160" t="n">
         <v>12.74039009181367</v>
       </c>
@@ -47146,16 +45956,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA161" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB161" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC161" t="n">
         <v>1.075774763359316</v>
       </c>
@@ -47436,16 +46236,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA162" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB162" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC162" t="n">
         <v>1.01282488433344</v>
       </c>
@@ -47726,16 +46516,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA163" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB163" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC163" t="n">
         <v>18.01926291284682</v>
       </c>
@@ -48016,16 +46796,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA164" t="inlineStr">
-        <is>
-          <t>F6IV-V</t>
-        </is>
-      </c>
-      <c r="CB164" t="inlineStr">
-        <is>
-          <t>F6IV-V</t>
-        </is>
-      </c>
       <c r="CC164" t="n">
         <v>16.99268052385949</v>
       </c>
@@ -48311,21 +47081,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA165" t="inlineStr">
-        <is>
-          <t>F9VFe-0.8CH-0.7</t>
-        </is>
-      </c>
-      <c r="CB165" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
       <c r="CC165" t="n">
         <v>6.269944027312743</v>
       </c>
       <c r="CD165" t="n">
-        <v>22.06162341343229</v>
+        <v>22.06162341343228</v>
       </c>
       <c r="CE165" t="inlineStr">
         <is>
@@ -48606,16 +47366,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA166" t="inlineStr">
-        <is>
-          <t>F6VFe-0.4</t>
-        </is>
-      </c>
-      <c r="CB166" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC166" t="n">
         <v>10.43084385233464</v>
       </c>
@@ -48896,16 +47646,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA167" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="CB167" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC167" t="n">
         <v>1.526411353080533</v>
       </c>
@@ -49186,16 +47926,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA168" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB168" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC168" t="n">
         <v>1.746097396453209</v>
       </c>
@@ -49402,7 +48132,7 @@
         <v>0.7957516031522688</v>
       </c>
       <c r="BF169" t="n">
-        <v>6.895888036379815</v>
+        <v>6.895888036379814</v>
       </c>
       <c r="BG169" t="n">
         <v>6.703805923461914</v>
@@ -49435,10 +48165,10 @@
         <v>0.8939739511304585</v>
       </c>
       <c r="BQ169" t="n">
-        <v>0.1490097064217218</v>
+        <v>0.1490097064217217</v>
       </c>
       <c r="BR169" t="n">
-        <v>1.466649177966211</v>
+        <v>1.46664917796621</v>
       </c>
       <c r="BS169" t="n">
         <v>1.742480332590559</v>
@@ -49471,18 +48201,8 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA169" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB169" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC169" t="n">
-        <v>1.466645451681133</v>
+        <v>1.466645451681132</v>
       </c>
       <c r="CD169" t="n">
         <v>15.81931741178505</v>
@@ -49748,16 +48468,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA170" t="inlineStr">
-        <is>
-          <t>G0-V</t>
-        </is>
-      </c>
-      <c r="CB170" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
       <c r="CC170" t="n">
         <v>0.9792103388426828</v>
       </c>
@@ -50040,16 +48750,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA171" t="inlineStr">
-        <is>
-          <t>K3VFe-1.7</t>
-        </is>
-      </c>
-      <c r="CB171" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="CC171" t="n">
         <v>1.383070924943398</v>
       </c>
@@ -50335,21 +49035,11 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA172" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="CB172" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
       <c r="CC172" t="n">
         <v>0.8427702230441656</v>
       </c>
       <c r="CD172" t="n">
-        <v>9.893947947441868</v>
+        <v>9.893947947441871</v>
       </c>
       <c r="CE172" t="inlineStr">
         <is>
@@ -50625,16 +49315,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA173" t="inlineStr">
-        <is>
-          <t>F4V</t>
-        </is>
-      </c>
-      <c r="CB173" t="inlineStr">
-        <is>
-          <t>F4V</t>
-        </is>
-      </c>
       <c r="CC173" t="n">
         <v>22.60230426881832</v>
       </c>
@@ -50879,7 +49559,7 @@
         <v>2.17092986513029</v>
       </c>
       <c r="BQ174" t="n">
-        <v>0.6751724621008689</v>
+        <v>0.6751724621008691</v>
       </c>
       <c r="BR174" t="n">
         <v>12.30832136653634</v>
@@ -50918,16 +49598,6 @@
       <c r="BZ174" t="inlineStr">
         <is>
           <t>GAIA</t>
-        </is>
-      </c>
-      <c r="CA174" t="inlineStr">
-        <is>
-          <t>F5V</t>
-        </is>
-      </c>
-      <c r="CB174" t="inlineStr">
-        <is>
-          <t>F5V</t>
         </is>
       </c>
       <c r="CC174" t="n">
@@ -51210,16 +49880,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA175" t="inlineStr">
-        <is>
-          <t>G1V</t>
-        </is>
-      </c>
-      <c r="CB175" t="inlineStr">
-        <is>
-          <t>G1V</t>
-        </is>
-      </c>
       <c r="CC175" t="n">
         <v>1.57478070594093</v>
       </c>
@@ -51490,16 +50150,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA176" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="CB176" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
       <c r="CC176" t="n">
         <v>0.4450389844451547</v>
       </c>
@@ -51785,16 +50435,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA177" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
-      <c r="CB177" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
       <c r="CC177" t="n">
         <v>1.698958321177661</v>
       </c>
@@ -52370,16 +51010,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA179" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
-      <c r="CB179" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
       <c r="CC179" t="n">
         <v>1.345620501735711</v>
       </c>
@@ -52660,16 +51290,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA180" t="inlineStr">
-        <is>
-          <t>G0V+</t>
-        </is>
-      </c>
-      <c r="CB180" t="inlineStr">
-        <is>
-          <t>G0V</t>
-        </is>
-      </c>
       <c r="CC180" t="n">
         <v>1.697406389851391</v>
       </c>
@@ -52955,16 +51575,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA181" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="CB181" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
       <c r="CC181" t="n">
         <v>12.71664104229825</v>
       </c>
@@ -53250,16 +51860,6 @@
           <t>GAIA</t>
         </is>
       </c>
-      <c r="CA182" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="CB182" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
       <c r="CC182" t="n">
         <v>23.95137798616613</v>
       </c>
@@ -53543,16 +52143,6 @@
       <c r="BZ183" t="inlineStr">
         <is>
           <t>GAIA</t>
-        </is>
-      </c>
-      <c r="CA183" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
-      <c r="CB183" t="inlineStr">
-        <is>
-          <t>M0V</t>
         </is>
       </c>
       <c r="CC183" t="n">
